--- a/project/empirical/10_data/UKMD_April_2024/data_description.xlsx
+++ b/project/empirical/10_data/UKMD_April_2024/data_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wu-my.sharepoint.com/personal/anne_valder_wu_ac_at/Documents/Documents/Study/SoSe_24/Statistical Learning/assignments/StatL_5454/project/empirical/10_data/UKMD_April_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2ED7EAA3-3230-436B-B049-8ACC83ADA3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D20D0B-18F2-410A-A168-0E1F6ECF09F7}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{2ED7EAA3-3230-436B-B049-8ACC83ADA3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4649925E-16E0-43DB-B51E-9E286E51BC07}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0DC17DF3-A7BB-441A-A964-72A5A0E9052D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{0DC17DF3-A7BB-441A-A964-72A5A0E9052D}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -756,12 +756,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -785,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,6 +800,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -809,6 +817,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1110,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61768E74-E717-40C7-BA0E-2733F2A03E9B}">
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,20 +1205,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1567,20 +1579,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1992,20 +2004,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="6">
         <v>5</v>
       </c>
     </row>
